--- a/IRCS3_local/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/Input Sheet_IRCS3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Run Control 3\IRCS3_build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F823BE3-FDB3-41D6-A624-B0A486B343B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E7DAE-CAE1-41EA-8EC1-C7F7B2ADB8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Output Path UL</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -868,142 +871,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>16233</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>16588</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>16233</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>16162</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1015,213 +1033,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="78.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16162</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16233</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>16588</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>16233</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>64</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>16162</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16162</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>16162</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1368,49 +1410,55 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g46983e88b4748ce85d84a0abf06caac>
-    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </DossierOwner>
-    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </nd5bd31d213b4cb1bf846bde47655c34>
-    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
-      <Description>APRHY6R45T4P-856611686-9305190</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004312D8B6B7481B43B53F1395DB0B4398" ma:contentTypeVersion="89" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d0ce2a49f41fab833ace50872ca8535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc25a3cb-218b-453f-9455-87bfb19dc12c" xmlns:ns3="8661a489-ba16-49fb-b51a-1401f116943e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88bce0ef7b5063b091915781c1c66033" ns2:_="" ns3:_="">
     <xsd:import namespace="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
@@ -1751,76 +1799,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g46983e88b4748ce85d84a0abf06caac>
+    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </DossierOwner>
+    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nd5bd31d213b4cb1bf846bde47655c34>
+    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
+      <Description>APRHY6R45T4P-856611686-9305190</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
-    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FBF0E4-3A46-4E44-9FC1-B647E65C970F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1839,10 +1870,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
+    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IRCS3_local/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/Input Sheet_IRCS3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E7DAE-CAE1-41EA-8EC1-C7F7B2ADB8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C3768-0CB2-445D-B2A1-DA481890DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -329,13 +329,13 @@
     <t>Output Path Trad</t>
   </si>
   <si>
-    <t>D:\Run Control 3\Source</t>
-  </si>
-  <si>
     <t>Output Path UL</t>
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>D:\RUN 3\control_3\control_3\IRCS3_local\Output</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,15 +834,15 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,6 +863,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 Internal&amp;1#_x000D_</oddHeader>
   </headerFooter>
@@ -874,7 +875,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
@@ -1035,9 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1058,7 +1057,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
@@ -1410,55 +1409,49 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g46983e88b4748ce85d84a0abf06caac>
+    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </DossierOwner>
+    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nd5bd31d213b4cb1bf846bde47655c34>
+    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
+      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
+      <Description>APRHY6R45T4P-856611686-9305190</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004312D8B6B7481B43B53F1395DB0B4398" ma:contentTypeVersion="89" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d0ce2a49f41fab833ace50872ca8535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc25a3cb-218b-453f-9455-87bfb19dc12c" xmlns:ns3="8661a489-ba16-49fb-b51a-1401f116943e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88bce0ef7b5063b091915781c1c66033" ns2:_="" ns3:_="">
     <xsd:import namespace="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
@@ -1799,59 +1792,76 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DossierStatus xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <ContractExpirationDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <g46983e88b4748ce85d84a0abf06caac xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g46983e88b4748ce85d84a0abf06caac>
-    <DossierOwner xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </DossierOwner>
-    <TaxCatchAll xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <ContractDate xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <nd5bd31d213b4cb1bf846bde47655c34 xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </nd5bd31d213b4cb1bf846bde47655c34>
-    <_dlc_DocIdPersistId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <_dlc_DocId xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">APRHY6R45T4P-856611686-9305190</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c">
-      <Url>https://allianzms.sharepoint.com/teams/ID0002-5620391/_layouts/15/DocIdRedir.aspx?ID=APRHY6R45T4P-856611686-9305190</Url>
-      <Description>APRHY6R45T4P-856611686-9305190</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAllLabel xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-    <MailPreviewData xmlns="fc25a3cb-218b-453f-9455-87bfb19dc12c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
+    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FBF0E4-3A46-4E44-9FC1-B647E65C970F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1870,21 +1880,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8661a489-ba16-49fb-b51a-1401f116943e"/>
-    <ds:schemaRef ds:uri="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IRCS3_local/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/Input Sheet_IRCS3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C3768-0CB2-445D-B2A1-DA481890DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63E9FF7-33C6-493E-99E3-C29EFA9AD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/IRCS3_local/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/Input Sheet_IRCS3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63E9FF7-33C6-493E-99E3-C29EFA9AD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DE542-C3F9-4C65-8187-BB2EB414B791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Path</t>
   </si>
@@ -330,9 +330,6 @@
   </si>
   <si>
     <t>Output Path UL</t>
-  </si>
-  <si>
-    <t>run</t>
   </si>
   <si>
     <t>D:\RUN 3\control_3\control_3\IRCS3_local\Output</t>
@@ -780,7 +777,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +831,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +839,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -872,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,136 +890,121 @@
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>16233</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>16588</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>16233</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>16162</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1034,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,214 +1039,190 @@
     <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>16162</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>16233</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>16588</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>16233</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>64</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>16162</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>16162</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>16162</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1410,15 +1368,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
@@ -1453,7 +1402,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004312D8B6B7481B43B53F1395DB0B4398" ma:contentTypeVersion="89" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d0ce2a49f41fab833ace50872ca8535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc25a3cb-218b-453f-9455-87bfb19dc12c" xmlns:ns3="8661a489-ba16-49fb-b51a-1401f116943e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88bce0ef7b5063b091915781c1c66033" ns2:_="" ns3:_="">
     <xsd:import namespace="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
@@ -1794,65 +1802,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1863,7 +1813,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FBF0E4-3A46-4E44-9FC1-B647E65C970F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1880,12 +1846,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IRCS3_local/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/Input Sheet_IRCS3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\control_3\IRCS3_local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\con 3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DE542-C3F9-4C65-8187-BB2EB414B791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F8CF3-43CE-4E9D-9A6C-5AE512B0104F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>Path</t>
   </si>
@@ -60,9 +58,6 @@
   </si>
   <si>
     <t>exclude_cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDIDR </t>
   </si>
   <si>
     <t>exclude_portfolio</t>
@@ -339,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,16 +772,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,68 +789,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>16233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -871,43 +866,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98396019-94BE-485D-A5D8-067E27DD3CCC}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -919,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -928,84 +923,84 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
       <c r="D2">
         <v>16233</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>16588</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>16233</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>16162</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1018,48 +1013,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1071,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
@@ -1080,155 +1076,156 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>16162</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>16233</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>16588</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>16233</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5">
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>16162</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>16162</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>16162</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1240,126 +1237,126 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="42.75">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:3" ht="57">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.75">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85.5">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="142.5">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="10" spans="1:3" ht="57">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS3_local/Input Sheet_IRCS3.xlsx
+++ b/IRCS3_local/Input Sheet_IRCS3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\con 3\control_3\IRCS3_local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F8CF3-43CE-4E9D-9A6C-5AE512B0104F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CD303-809E-4F59-8974-CE4C04F799F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39CD0CFB-8569-4F4C-A93B-65D0EC8DD888}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SETTING" sheetId="1" r:id="rId1"/>
@@ -327,14 +327,14 @@
     <t>Output Path UL</t>
   </si>
   <si>
-    <t>D:\RUN 3\control_3\control_3\IRCS3_local\Output</t>
+    <t>D:\RUN 3\control_3\IRCS3_local\Output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,17 +771,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E09DF9-B3EB-4807-9185-E50CFCF678DC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -813,7 +813,7 @@
         <v>16233</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -829,7 +829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -837,7 +837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -845,7 +845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -870,22 +870,22 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -929,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -946,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -966,7 +966,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -986,7 +986,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1013,29 +1013,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE852304-9EA7-4B97-B05F-87D3EE9C70B0}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1237,14 +1237,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42.75">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42.75">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85.5">
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="142.5">
+    <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
@@ -1365,6 +1365,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8661a489-ba16-49fb-b51a-1401f116943e">
@@ -1399,66 +1408,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004312D8B6B7481B43B53F1395DB0B4398" ma:contentTypeVersion="89" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d0ce2a49f41fab833ace50872ca8535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc25a3cb-218b-453f-9455-87bfb19dc12c" xmlns:ns3="8661a489-ba16-49fb-b51a-1401f116943e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88bce0ef7b5063b091915781c1c66033" ns2:_="" ns3:_="">
     <xsd:import namespace="fc25a3cb-218b-453f-9455-87bfb19dc12c"/>
@@ -1799,7 +1749,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438B2D89-528A-4749-8F4C-F7264DEDEF14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1810,23 +1818,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF177DCA-1870-4930-AF4A-F7D337DE00DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FBF0E4-3A46-4E44-9FC1-B647E65C970F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1843,4 +1835,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5F97DC-14F1-4D69-A2A3-3239926088C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>